--- a/test_workbook/work3_test/work3-2-21/エビデンス/BOPエラー/Backup/Work_Backup_20250919_153527_1.xlsx
+++ b/test_workbook/work3_test/work3-2-21/エビデンス/BOPエラー/Backup/Work_Backup_20250919_153527_1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-20\Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-21\エビデンス\BOPエラー\Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{824F9B1A-A986-49E9-B8A7-3CC3639E0B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E457C5-A2CC-4183-AAAA-9B87CAAD0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F11D9F-8C6E-46A2-836C-1085B40F0CCD}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{31F11D9F-8C6E-46A2-836C-1085B40F0CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,11 +485,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4F0577-C27C-45EB-97CE-9524A7619115}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
